--- a/格式化文档信息.xlsx
+++ b/格式化文档信息.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haosun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haosun/Desktop/SHRequestFileManage/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>/emptyVisit/myEmptyVisitPager</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>pageNo</t>
@@ -415,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -426,7 +420,7 @@
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,94 +431,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -533,185 +482,95 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
